--- a/data/lossofsale_sg_kottayam.xlsx
+++ b/data/lossofsale_sg_kottayam.xlsx
@@ -203,12 +203,12 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="3" max="3" width="18.900000000000002" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.55" customWidth="1"/>
     <col min="6" max="6" width="24.3" customWidth="1"/>
-    <col min="7" max="7" width="22.950000000000003" customWidth="1"/>
-    <col min="8" max="8" width="14.850000000000001" customWidth="1"/>
+    <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
+    <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
     <col min="9" max="9" width="37.800000000000004" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
     <col min="11" max="11" width="54" customWidth="1"/>
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">06-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Manuel</t>
+          <t xml:space="preserve">david</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>7411047059</v>
+        <v>9496544576</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">06-01-2026</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">customer ok with blue suit he will discuss with family and visit again store</t>
+          <t xml:space="preserve">they looking or product below 2k and if they going to purchase they need discount. that's the customer demand</t>
         </is>
       </c>
     </row>
@@ -337,40 +337,40 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">06-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">jhonson</t>
+          <t xml:space="preserve">vishnu</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>7012287651</v>
+        <v>9207504765</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">05-01-2026</t>
+          <t xml:space="preserve">06-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+          <t xml:space="preserve">NANDHU RAJESH</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t xml:space="preserve">Booked</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">NON PREMIUM</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">3PCS SUIT</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">customer purchased two 3pcs suit in multiple date</t>
+          <t xml:space="preserve">visit again</t>
         </is>
       </c>
     </row>
@@ -390,40 +390,40 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">06-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">NIKHIL</t>
+          <t xml:space="preserve">milan</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>8289800956</v>
+        <v>9744001005</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">26-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">NANDHU RAJESH</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
         <is>
-          <t xml:space="preserve">Booked</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">PREMIUM</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">INDOWESTERN</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">BLACK AND RED IW</t>
+          <t xml:space="preserve">HE REQUIRED MULTIPLE QTY OF SUITES,WILL CONFIRM AND REVISIT THE STORE AFTER CONFIRMING THE COLOURS</t>
         </is>
       </c>
     </row>
@@ -443,40 +443,40 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">06-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">jacob thomas</t>
+          <t xml:space="preserve">alen</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>8281466595</v>
+        <v>8086628505</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">14-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">Arjun Reji</t>
+          <t xml:space="preserve">NANDHU RAJESH</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
         <is>
-          <t xml:space="preserve">Booked</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">PREMIUM</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">BANGALA</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">OFF WHITE BENGALA</t>
+          <t xml:space="preserve">bride dress not conform and just watch the product</t>
         </is>
       </c>
     </row>
@@ -496,40 +496,40 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">06-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">jibu</t>
+          <t xml:space="preserve">rohith</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>7025548186</v>
+        <v>9495232679</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">30-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">Arjun Reji</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
         <is>
-          <t xml:space="preserve">Rentout</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -539,7 +539,7 @@
       </c>
       <c t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">RENT OUT</t>
+          <t xml:space="preserve">customer liked the product but he can book only in next Tuesday onwards</t>
         </is>
       </c>
     </row>
@@ -549,40 +549,40 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">07-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">SAHAD</t>
+          <t xml:space="preserve">john</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>9020070052</v>
+        <v>9539009777</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">Arjun Reji</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
         <is>
-          <t xml:space="preserve">Return</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -592,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">Return</t>
+          <t xml:space="preserve">matching requirement is not as expected on the suit. they will confirm as soon as possible</t>
         </is>
       </c>
     </row>
@@ -602,40 +602,40 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">07-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">SHAMNAS</t>
+          <t xml:space="preserve">Amal</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>7736598124</v>
+        <v>9745359717</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">Arjun Reji</t>
+          <t xml:space="preserve">Aswin Raj M. R</t>
         </is>
       </c>
       <c t="inlineStr" r="G9">
         <is>
-          <t xml:space="preserve">Booking &amp; Rentout</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">NON PREMIUM</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">3PCS SUIT</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
@@ -645,7 +645,7 @@
       </c>
       <c t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">NON PREMIUM 3 PC SUIT 2 QTY</t>
+          <t xml:space="preserve">customer ok with black bangala he will discuss with family and visit again store</t>
         </is>
       </c>
     </row>
@@ -655,20 +655,20 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">07-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">JAISON</t>
+          <t xml:space="preserve">Emmanuel</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>9605514974</v>
+        <v>8606819891</v>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">02-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
@@ -678,17 +678,17 @@
       </c>
       <c t="inlineStr" r="G10">
         <is>
-          <t xml:space="preserve">Booking &amp; Rentout</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">NON PREMIUM</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">3PCS SUIT</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J10">
@@ -698,7 +698,7 @@
       </c>
       <c t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">ROYAL BLUE 3PCS SUIT</t>
+          <t xml:space="preserve">They Need bulk qty of 7 plus 2 pc suit of peacock blue.Needs to confirm the  sizes,they will revisit the store after confirming the sizes</t>
         </is>
       </c>
     </row>
@@ -708,40 +708,40 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">07-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">SALMAN</t>
+          <t xml:space="preserve">alex siby</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>9846053102</v>
+        <v>8590956417</v>
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">11-01-2026</t>
+          <t xml:space="preserve">17-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">Booked</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">NON PREMIUM</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">INDOWESTERN</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J11">
@@ -751,7 +751,7 @@
       </c>
       <c t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">NAVY BLUE VELVET</t>
+          <t xml:space="preserve">they just came for enquiry and grooms brother will come and take suit after 1 week. they will contact the store around one week</t>
         </is>
       </c>
     </row>
@@ -761,40 +761,40 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">08-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">DEON J PUNNOOSE</t>
+          <t xml:space="preserve">arun</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>9446309721</v>
+        <v>9995755008</v>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">15-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">NANDHU RAJESH</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
         <is>
-          <t xml:space="preserve">Booking &amp; Rentout</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J12">
@@ -804,7 +804,7 @@
       </c>
       <c t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">booked</t>
+          <t xml:space="preserve">he has no time to trial.enquired and revist the store after purchase bride dress</t>
         </is>
       </c>
     </row>
@@ -814,25 +814,25 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">08-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">abhel</t>
+          <t xml:space="preserve">mathew abraham</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>9711815453</v>
+        <v>9745624572</v>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">12-01-2026</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">Noel Jacob</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -847,7 +847,7 @@
       </c>
       <c t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J13">
@@ -857,7 +857,7 @@
       </c>
       <c t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">just enquiry</t>
+          <t xml:space="preserve">customer don't have time to trial  the products. just came here to checkout the price and availability. and he will visit shop in Wednesday after 10 :30 am onwards</t>
         </is>
       </c>
     </row>
@@ -867,40 +867,40 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">08-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">SUITERGUY TRIVANDRUM</t>
+          <t xml:space="preserve">Sebin</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>7593838700</v>
+        <v>6235516827</v>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">12-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">Jithinsha R</t>
+          <t xml:space="preserve">Aswin Raj M. R</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
         <is>
-          <t xml:space="preserve">New Walkin</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J14">
@@ -910,7 +910,7 @@
       </c>
       <c t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">New booking</t>
+          <t xml:space="preserve">just enqueiry</t>
         </is>
       </c>
     </row>
@@ -920,48 +920,50 @@
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">08-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">SUITERGUY TRIVANDRUM</t>
+          <t xml:space="preserve">Solaman</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>7593838700</v>
+        <v>9605147847</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">Jithinsha R</t>
+          <t xml:space="preserve">Aswin Raj M. R</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
         <is>
-          <t xml:space="preserve">New Walkin</t>
+          <t xml:space="preserve">Loss</t>
         </is>
       </c>
       <c t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c r="J15" s="65">
-        <v>2</v>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
       </c>
       <c t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">New booking</t>
+          <t xml:space="preserve">kurtha enquiery</t>
         </is>
       </c>
     </row>
@@ -971,48 +973,1216 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
+          <t xml:space="preserve">08-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">agnelo</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>9544844999</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">31-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">Arjun Reji</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">REQUIRED PRODUCT IS IW OF 46 ZIZE,WE DONT HAVE THAT.WE HAVE SHOWN SUITE, BUT THEY ARE NOT COMFURTABLE WITH THAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">09-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">Roshni</t>
+        </is>
+      </c>
+      <c r="D17" s="65">
+        <v>7448271507</v>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">05-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">BRIDE VISIT THE STORE AND ENQUIRED AND IF HE ARRIVED HE WILL VISIT THE STORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">09-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">aslam</t>
+        </is>
+      </c>
+      <c r="D18" s="65">
+        <v>9074704969</v>
+      </c>
+      <c t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">VISIT AGAIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">09-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">jithu k panose</t>
+        </is>
+      </c>
+      <c r="D19" s="65">
+        <v>8590885538</v>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">customer gonna purchase the product tomorrow while in online</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">10-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">anoop</t>
+        </is>
+      </c>
+      <c r="D20" s="65">
+        <v>8078196649</v>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">CUSTOMER TRIED SUIT AND HE WILL VISIT THE STORE TOMORROW AND PURCHASE SHOE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">11-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">asif</t>
+        </is>
+      </c>
+      <c r="D21" s="65">
+        <v>8592084968</v>
+      </c>
+      <c t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">Arjun Reji</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">family not like the product</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">11-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">bilal</t>
+        </is>
+      </c>
+      <c r="D22" s="65">
+        <v>7356639566</v>
+      </c>
+      <c t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">Jithinsha R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">they were looking for a blue premium suit for groom and 7 plain black suit for cousins,But the amount they are expected is too high from here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">11-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">Bibin</t>
+        </is>
+      </c>
+      <c r="D23" s="65">
+        <v>7907830557</v>
+      </c>
+      <c t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">22-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K23">
+        <is>
+          <t xml:space="preserve">THEY ARE OK WITH PREMIUM BLACK SUIT AND BEIGE 3 PC NON PREMIUM,NEEDS TO CONFIRM WITH BRIDE AND REVISIT ASAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">12-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">alimsha</t>
+        </is>
+      </c>
+      <c r="D24" s="65">
+        <v>9562165414</v>
+      </c>
+      <c t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K24">
+        <is>
+          <t xml:space="preserve">customer liked the product ,He only preffer black embo suit 34 but its alredy booked on the same date , next size is big for him and other product are are rejected by him</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="65">
+        <v>23</v>
+      </c>
+      <c t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">12-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">Akku</t>
+        </is>
+      </c>
+      <c r="D25" s="65">
+        <v>8075834843</v>
+      </c>
+      <c t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F25">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G25">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J25">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K25">
+        <is>
+          <t xml:space="preserve">44 size indowestern not suitable</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="65">
+        <v>24</v>
+      </c>
+      <c t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">12-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">Vishak</t>
+        </is>
+      </c>
+      <c r="D26" s="65">
+        <v>7034766323</v>
+      </c>
+      <c t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F26">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G26">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I26">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J26">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K26">
+        <is>
+          <t xml:space="preserve">HE LIKES BLUE SELF PRINT,WILL CHECK WITH FAMILY AND CONFIRM BACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="65">
+        <v>25</v>
+      </c>
+      <c t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C27">
+        <is>
+          <t xml:space="preserve">arjun</t>
+        </is>
+      </c>
+      <c r="D27" s="65">
+        <v>9400208644</v>
+      </c>
+      <c t="inlineStr" r="E27">
+        <is>
+          <t xml:space="preserve">09-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F27">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G27">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I27">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J27">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K27">
+        <is>
+          <t xml:space="preserve">customer is ok with offwhite indo he will discuss with family and revisit again</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="65">
+        <v>26</v>
+      </c>
+      <c t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C28">
+        <is>
+          <t xml:space="preserve">levin</t>
+        </is>
+      </c>
+      <c r="D28" s="65">
+        <v>9446345585</v>
+      </c>
+      <c t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">12-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F28">
+        <is>
+          <t xml:space="preserve">NANDHU RAJESH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J28">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K28">
+        <is>
+          <t xml:space="preserve">They were confirmed premiun IW meroon and black embo,will discuss with family and update by tomorrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="65">
+        <v>27</v>
+      </c>
+      <c t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C29">
+        <is>
+          <t xml:space="preserve">Anson</t>
+        </is>
+      </c>
+      <c r="D29" s="65">
+        <v>8157006475</v>
+      </c>
+      <c t="inlineStr" r="E29">
+        <is>
+          <t xml:space="preserve">05-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F29">
+        <is>
+          <t xml:space="preserve">Arjun Reji</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G29">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H29">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I29">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J29">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K29">
+        <is>
+          <t xml:space="preserve">The product ok with customer they will discuss the family and visit again</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="65">
+        <v>28</v>
+      </c>
+      <c t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C30">
+        <is>
+          <t xml:space="preserve">joyal</t>
+        </is>
+      </c>
+      <c r="D30" s="65">
+        <v>9778238348</v>
+      </c>
+      <c t="inlineStr" r="E30">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F30">
+        <is>
+          <t xml:space="preserve">NANDHU RAJESH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G30">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I30">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J30">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K30">
+        <is>
+          <t xml:space="preserve">black bulk product 4 qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="65">
+        <v>29</v>
+      </c>
+      <c t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">shafi</t>
+        </is>
+      </c>
+      <c r="D31" s="65">
+        <v>9995786001</v>
+      </c>
+      <c t="inlineStr" r="E31">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">Arjun Reji</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G31">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I31">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K31">
+        <is>
+          <t xml:space="preserve">Price Asking…. And visit again</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="65">
+        <v>30</v>
+      </c>
+      <c t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C32">
+        <is>
+          <t xml:space="preserve">Sachin</t>
+        </is>
+      </c>
+      <c r="D32" s="65">
+        <v>8089413584</v>
+      </c>
+      <c t="inlineStr" r="E32">
+        <is>
+          <t xml:space="preserve">17-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G32">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K32">
+        <is>
+          <t xml:space="preserve">visit again</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="65">
+        <v>31</v>
+      </c>
+      <c t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C33">
+        <is>
+          <t xml:space="preserve">starlet</t>
+        </is>
+      </c>
+      <c r="D33" s="65">
+        <v>9381340768</v>
+      </c>
+      <c t="inlineStr" r="E33">
+        <is>
+          <t xml:space="preserve">07-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G33">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I33">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J33">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K33">
+        <is>
+          <t xml:space="preserve">Customer is ok with wine suit he will discuss family and revisit again</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="65">
+        <v>32</v>
+      </c>
+      <c t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C34">
+        <is>
+          <t xml:space="preserve">JITHU</t>
+        </is>
+      </c>
+      <c r="D34" s="65">
+        <v>8848221123</v>
+      </c>
+      <c t="inlineStr" r="E34">
+        <is>
+          <t xml:space="preserve">29-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F34">
+        <is>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G34">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H34">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I34">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K34">
+        <is>
+          <t xml:space="preserve">THEY ARE OK WITH BLUE PREMIUM AND WHITE IW ,CONFIRM WITH BRIDE AND WILL REVISIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="65">
+        <v>33</v>
+      </c>
+      <c t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C35">
+        <is>
+          <t xml:space="preserve">Robin</t>
+        </is>
+      </c>
+      <c r="D35" s="65">
+        <v>6238812240</v>
+      </c>
+      <c t="inlineStr" r="E35">
+        <is>
+          <t xml:space="preserve">14-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F35">
+        <is>
+          <t xml:space="preserve">Arjun Reji</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G35">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I35">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J35">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K35">
+        <is>
+          <t xml:space="preserve">Customer ok with the product.they will discuss and inform tomorrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="65">
+        <v>34</v>
+      </c>
+      <c t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">shiros</t>
+        </is>
+      </c>
+      <c r="D36" s="65">
+        <v>9567090630</v>
+      </c>
+      <c t="inlineStr" r="E36">
+        <is>
+          <t xml:space="preserve">25-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">NANDHU RAJESH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G36">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J36">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K36">
+        <is>
+          <t xml:space="preserve">They required 44 size IW ,we are showed available 2 models,the customer is in USA,they will confirm once the colour is selected</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="65">
+        <v>35</v>
+      </c>
+      <c t="inlineStr" r="B37">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C16">
-        <is>
-          <t xml:space="preserve">SUITERGUY TRIVANDRUM</t>
-        </is>
-      </c>
-      <c r="D16" s="65">
-        <v>7593838700</v>
-      </c>
-      <c t="inlineStr" r="E16">
-        <is>
-          <t xml:space="preserve">20-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F16">
+      <c t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">Manuel</t>
+        </is>
+      </c>
+      <c r="D37" s="65">
+        <v>7411047059</v>
+      </c>
+      <c t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">06-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G37">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J37">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K37">
+        <is>
+          <t xml:space="preserve">customer ok with blue suit he will discuss with family and visit again store</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="65">
+        <v>36</v>
+      </c>
+      <c t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">abhel</t>
+        </is>
+      </c>
+      <c r="D38" s="65">
+        <v>9711815453</v>
+      </c>
+      <c t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">12-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F38">
         <is>
           <t xml:space="preserve">Noel Jacob</t>
         </is>
       </c>
-      <c t="inlineStr" r="G16">
-        <is>
-          <t xml:space="preserve">Booked</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H16">
-        <is>
-          <t xml:space="preserve">PREMIUM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I16">
-        <is>
-          <t xml:space="preserve">3PCS SUIT</t>
-        </is>
-      </c>
-      <c r="J16" s="65">
-        <v>3</v>
-      </c>
-      <c t="inlineStr" r="K16">
-        <is>
-          <t xml:space="preserve">white premiun 3 PC</t>
+      <c t="inlineStr" r="G38">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I38">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J38">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K38">
+        <is>
+          <t xml:space="preserve">just enquiry</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_kottayam.xlsx
+++ b/data/lossofsale_sg_kottayam.xlsx
@@ -203,13 +203,13 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="18.900000000000002" customWidth="1"/>
+    <col min="3" max="3" width="17.55" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.55" customWidth="1"/>
     <col min="6" max="6" width="24.3" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
-    <col min="9" max="9" width="37.800000000000004" customWidth="1"/>
+    <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
     <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
@@ -284,20 +284,20 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">06-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">david</t>
+          <t xml:space="preserve">anoop</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>9496544576</v>
+        <v>8078196649</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">03-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">they looking or product below 2k and if they going to purchase they need discount. that's the customer demand</t>
+          <t xml:space="preserve">CUSTOMER TRIED SUIT AND HE WILL VISIT THE STORE TOMORROW AND PURCHASE SHOE</t>
         </is>
       </c>
     </row>
@@ -337,25 +337,25 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">06-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">vishnu</t>
+          <t xml:space="preserve">asif</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>9207504765</v>
+        <v>8592084968</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">06-01-2026</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">NANDHU RAJESH</t>
+          <t xml:space="preserve">Arjun Reji</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">visit again</t>
+          <t xml:space="preserve">family not like the product</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">06-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">milan</t>
+          <t xml:space="preserve">bilal</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>9744001005</v>
+        <v>7356639566</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">26-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">NANDHU RAJESH</t>
+          <t xml:space="preserve">Jithinsha R</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -418,12 +418,12 @@
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">HE REQUIRED MULTIPLE QTY OF SUITES,WILL CONFIRM AND REVISIT THE STORE AFTER CONFIRMING THE COLOURS</t>
+          <t xml:space="preserve">they were looking for a blue premium suit for groom and 7 plain black suit for cousins,But the amount they are expected is too high from here.</t>
         </is>
       </c>
     </row>
@@ -443,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">06-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">alen</t>
+          <t xml:space="preserve">Bibin</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>8086628505</v>
+        <v>7907830557</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">14-01-2026</t>
+          <t xml:space="preserve">22-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">NANDHU RAJESH</t>
+          <t xml:space="preserve">Aswin Raj M. R</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -476,7 +476,7 @@
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">bride dress not conform and just watch the product</t>
+          <t xml:space="preserve">THEY ARE OK WITH PREMIUM BLACK SUIT AND BEIGE 3 PC NON PREMIUM,NEEDS TO CONFIRM WITH BRIDE AND REVISIT ASAP</t>
         </is>
       </c>
     </row>
@@ -496,20 +496,20 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">06-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">rohith</t>
+          <t xml:space="preserve">alimsha</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>9495232679</v>
+        <v>9562165414</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">30-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
@@ -524,12 +524,12 @@
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -539,7 +539,7 @@
       </c>
       <c t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">customer liked the product but he can book only in next Tuesday onwards</t>
+          <t xml:space="preserve">customer liked the product ,He only preffer black embo suit 34 but its alredy booked on the same date , next size is big for him and other product are are rejected by him</t>
         </is>
       </c>
     </row>
@@ -549,25 +549,25 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">07-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">john</t>
+          <t xml:space="preserve">Akku</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>9539009777</v>
+        <v>8075834843</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+          <t xml:space="preserve">Aswin Raj M. R</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -577,12 +577,12 @@
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -592,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">matching requirement is not as expected on the suit. they will confirm as soon as possible</t>
+          <t xml:space="preserve">44 size indowestern not suitable</t>
         </is>
       </c>
     </row>
@@ -602,20 +602,20 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">07-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">Amal</t>
+          <t xml:space="preserve">Vishak</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>9745359717</v>
+        <v>7034766323</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
@@ -635,7 +635,7 @@
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
@@ -645,7 +645,7 @@
       </c>
       <c t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">customer ok with black bangala he will discuss with family and visit again store</t>
+          <t xml:space="preserve">HE LIKES BLUE SELF PRINT,WILL CHECK WITH FAMILY AND CONFIRM BACK</t>
         </is>
       </c>
     </row>
@@ -655,20 +655,20 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">07-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">Emmanuel</t>
+          <t xml:space="preserve">arjun</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>8606819891</v>
+        <v>9400208644</v>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">02-02-2026</t>
+          <t xml:space="preserve">09-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
@@ -688,7 +688,7 @@
       </c>
       <c t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J10">
@@ -698,7 +698,7 @@
       </c>
       <c t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">They Need bulk qty of 7 plus 2 pc suit of peacock blue.Needs to confirm the  sizes,they will revisit the store after confirming the sizes</t>
+          <t xml:space="preserve">customer is ok with offwhite indo he will discuss with family and revisit again</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">07-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">alex siby</t>
+          <t xml:space="preserve">levin</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>8590956417</v>
+        <v>9446345585</v>
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">17-01-2026</t>
+          <t xml:space="preserve">12-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+          <t xml:space="preserve">NANDHU RAJESH</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
@@ -741,7 +741,7 @@
       </c>
       <c t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J11">
@@ -751,7 +751,7 @@
       </c>
       <c t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">they just came for enquiry and grooms brother will come and take suit after 1 week. they will contact the store around one week</t>
+          <t xml:space="preserve">They were confirmed premiun IW meroon and black embo,will discuss with family and update by tomorrow</t>
         </is>
       </c>
     </row>
@@ -761,25 +761,25 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">08-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">arun</t>
+          <t xml:space="preserve">Anson</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>9995755008</v>
+        <v>8157006475</v>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">15-01-2026</t>
+          <t xml:space="preserve">05-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+          <t xml:space="preserve">Arjun Reji</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
@@ -804,7 +804,7 @@
       </c>
       <c t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">he has no time to trial.enquired and revist the store after purchase bride dress</t>
+          <t xml:space="preserve">The product ok with customer they will discuss the family and visit again</t>
         </is>
       </c>
     </row>
@@ -814,25 +814,25 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">08-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">mathew abraham</t>
+          <t xml:space="preserve">joyal</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>9745624572</v>
+        <v>9778238348</v>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+          <t xml:space="preserve">NANDHU RAJESH</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -857,7 +857,7 @@
       </c>
       <c t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">customer don't have time to trial  the products. just came here to checkout the price and availability. and he will visit shop in Wednesday after 10 :30 am onwards</t>
+          <t xml:space="preserve">black bulk product 4 qty</t>
         </is>
       </c>
     </row>
@@ -867,25 +867,25 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">08-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">Sebin</t>
+          <t xml:space="preserve">shafi</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>6235516827</v>
+        <v>9995786001</v>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">12-01-2026</t>
+          <t xml:space="preserve">11-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">Arjun Reji</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
@@ -900,7 +900,7 @@
       </c>
       <c t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J14">
@@ -910,7 +910,7 @@
       </c>
       <c t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">just enqueiry</t>
+          <t xml:space="preserve">Price Asking…. And visit again</t>
         </is>
       </c>
     </row>
@@ -920,20 +920,20 @@
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">08-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">Solaman</t>
+          <t xml:space="preserve">Sachin</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>9605147847</v>
+        <v>8089413584</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">08-01-2026</t>
+          <t xml:space="preserve">17-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
@@ -953,7 +953,7 @@
       </c>
       <c t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J15">
@@ -963,7 +963,7 @@
       </c>
       <c t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">kurtha enquiery</t>
+          <t xml:space="preserve">visit again</t>
         </is>
       </c>
     </row>
@@ -973,25 +973,25 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">08-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">agnelo</t>
+          <t xml:space="preserve">starlet</t>
         </is>
       </c>
       <c r="D16" s="65">
-        <v>9544844999</v>
+        <v>9381340768</v>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">31-01-2026</t>
+          <t xml:space="preserve">07-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">Arjun Reji</t>
+          <t xml:space="preserve">Aswin Raj M. R</t>
         </is>
       </c>
       <c t="inlineStr" r="G16">
@@ -1001,12 +1001,12 @@
       </c>
       <c t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J16">
@@ -1016,7 +1016,7 @@
       </c>
       <c t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">REQUIRED PRODUCT IS IW OF 46 ZIZE,WE DONT HAVE THAT.WE HAVE SHOWN SUITE, BUT THEY ARE NOT COMFURTABLE WITH THAT</t>
+          <t xml:space="preserve">Customer is ok with wine suit he will discuss family and revisit again</t>
         </is>
       </c>
     </row>
@@ -1026,25 +1026,25 @@
       </c>
       <c t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">09-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">Roshni</t>
+          <t xml:space="preserve">JITHU</t>
         </is>
       </c>
       <c r="D17" s="65">
-        <v>7448271507</v>
+        <v>8848221123</v>
       </c>
       <c t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">05-02-2026</t>
+          <t xml:space="preserve">29-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F17">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G17">
@@ -1059,7 +1059,7 @@
       </c>
       <c t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J17">
@@ -1069,7 +1069,7 @@
       </c>
       <c t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">BRIDE VISIT THE STORE AND ENQUIRED AND IF HE ARRIVED HE WILL VISIT THE STORE</t>
+          <t xml:space="preserve">THEY ARE OK WITH BLUE PREMIUM AND WHITE IW ,CONFIRM WITH BRIDE AND WILL REVISIT</t>
         </is>
       </c>
     </row>
@@ -1079,25 +1079,25 @@
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">09-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">aslam</t>
+          <t xml:space="preserve">Robin</t>
         </is>
       </c>
       <c r="D18" s="65">
-        <v>9074704969</v>
+        <v>6238812240</v>
       </c>
       <c t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">11-01-2026</t>
+          <t xml:space="preserve">14-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F18">
         <is>
-          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+          <t xml:space="preserve">Arjun Reji</t>
         </is>
       </c>
       <c t="inlineStr" r="G18">
@@ -1122,7 +1122,7 @@
       </c>
       <c t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">VISIT AGAIN</t>
+          <t xml:space="preserve">Customer ok with the product.they will discuss and inform tomorrow</t>
         </is>
       </c>
     </row>
@@ -1132,25 +1132,25 @@
       </c>
       <c t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">09-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">jithu k panose</t>
+          <t xml:space="preserve">shiros</t>
         </is>
       </c>
       <c r="D19" s="65">
-        <v>8590885538</v>
+        <v>9567090630</v>
       </c>
       <c t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+          <t xml:space="preserve">NANDHU RAJESH</t>
         </is>
       </c>
       <c t="inlineStr" r="G19">
@@ -1160,12 +1160,12 @@
       </c>
       <c t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J19">
@@ -1175,7 +1175,7 @@
       </c>
       <c t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">customer gonna purchase the product tomorrow while in online</t>
+          <t xml:space="preserve">They required 44 size IW ,we are showed available 2 models,the customer is in USA,they will confirm once the colour is selected</t>
         </is>
       </c>
     </row>
@@ -1185,25 +1185,25 @@
       </c>
       <c t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">10-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">anoop</t>
+          <t xml:space="preserve">Manuel</t>
         </is>
       </c>
       <c r="D20" s="65">
-        <v>8078196649</v>
+        <v>7411047059</v>
       </c>
       <c t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">06-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+          <t xml:space="preserve">Aswin Raj M. R</t>
         </is>
       </c>
       <c t="inlineStr" r="G20">
@@ -1218,7 +1218,7 @@
       </c>
       <c t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J20">
@@ -1228,7 +1228,7 @@
       </c>
       <c t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">CUSTOMER TRIED SUIT AND HE WILL VISIT THE STORE TOMORROW AND PURCHASE SHOE</t>
+          <t xml:space="preserve">customer ok with blue suit he will discuss with family and visit again store</t>
         </is>
       </c>
     </row>
@@ -1238,25 +1238,25 @@
       </c>
       <c t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">11-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">asif</t>
+          <t xml:space="preserve">abhel</t>
         </is>
       </c>
       <c r="D21" s="65">
-        <v>8592084968</v>
+        <v>9711815453</v>
       </c>
       <c t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">12-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F21">
         <is>
-          <t xml:space="preserve">Arjun Reji</t>
+          <t xml:space="preserve">Noel Jacob</t>
         </is>
       </c>
       <c t="inlineStr" r="G21">
@@ -1266,12 +1266,12 @@
       </c>
       <c t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J21">
@@ -1281,7 +1281,7 @@
       </c>
       <c t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">family not like the product</t>
+          <t xml:space="preserve">just enquiry</t>
         </is>
       </c>
     </row>
@@ -1291,25 +1291,25 @@
       </c>
       <c t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">11-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C22">
         <is>
-          <t xml:space="preserve">bilal</t>
+          <t xml:space="preserve">Shon</t>
         </is>
       </c>
       <c r="D22" s="65">
-        <v>7356639566</v>
+        <v>9037705576</v>
       </c>
       <c t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F22">
         <is>
-          <t xml:space="preserve">Jithinsha R</t>
+          <t xml:space="preserve">Aswin Raj M. R</t>
         </is>
       </c>
       <c t="inlineStr" r="G22">
@@ -1319,12 +1319,12 @@
       </c>
       <c t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J22">
@@ -1334,7 +1334,7 @@
       </c>
       <c t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">they were looking for a blue premium suit for groom and 7 plain black suit for cousins,But the amount they are expected is too high from here.</t>
+          <t xml:space="preserve">Customer tried Gary suit he need to confirm with family function will be January,so he will confirmation with family and revisit</t>
         </is>
       </c>
     </row>
@@ -1344,25 +1344,25 @@
       </c>
       <c t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">11-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C23">
         <is>
-          <t xml:space="preserve">Bibin</t>
+          <t xml:space="preserve">prashanth</t>
         </is>
       </c>
       <c r="D23" s="65">
-        <v>7907830557</v>
+        <v>9946984680</v>
       </c>
       <c t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">22-01-2026</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F23">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">Arjun Reji</t>
         </is>
       </c>
       <c t="inlineStr" r="G23">
@@ -1372,12 +1372,12 @@
       </c>
       <c t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J23">
@@ -1387,7 +1387,7 @@
       </c>
       <c t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">THEY ARE OK WITH PREMIUM BLACK SUIT AND BEIGE 3 PC NON PREMIUM,NEEDS TO CONFIRM WITH BRIDE AND REVISIT ASAP</t>
+          <t xml:space="preserve">Product not available</t>
         </is>
       </c>
     </row>
@@ -1397,20 +1397,20 @@
       </c>
       <c t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">12-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C24">
         <is>
-          <t xml:space="preserve">alimsha</t>
+          <t xml:space="preserve">farooq</t>
         </is>
       </c>
       <c r="D24" s="65">
-        <v>9562165414</v>
+        <v>9645531781</v>
       </c>
       <c t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F24">
@@ -1425,12 +1425,12 @@
       </c>
       <c t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J24">
@@ -1440,7 +1440,7 @@
       </c>
       <c t="inlineStr" r="K24">
         <is>
-          <t xml:space="preserve">customer liked the product ,He only preffer black embo suit 34 but its alredy booked on the same date , next size is big for him and other product are are rejected by him</t>
+          <t xml:space="preserve">black indo western. liked the product but that sized product already been  booked on the same date as the customer function date</t>
         </is>
       </c>
     </row>
@@ -1450,25 +1450,25 @@
       </c>
       <c t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">12-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C25">
         <is>
-          <t xml:space="preserve">Akku</t>
+          <t xml:space="preserve">Kevin</t>
         </is>
       </c>
       <c r="D25" s="65">
-        <v>8075834843</v>
+        <v>8891387975</v>
       </c>
       <c t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">17-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F25">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G25">
@@ -1478,12 +1478,12 @@
       </c>
       <c t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I25">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J25">
@@ -1493,7 +1493,7 @@
       </c>
       <c t="inlineStr" r="K25">
         <is>
-          <t xml:space="preserve">44 size indowestern not suitable</t>
+          <t xml:space="preserve">He needs 46 size blue velvet indo western or beige indo western,we done have the sizes and modes here for the exact sizes which customer needs</t>
         </is>
       </c>
     </row>
@@ -1503,25 +1503,25 @@
       </c>
       <c t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">12-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">Vishak</t>
+          <t xml:space="preserve">surya</t>
         </is>
       </c>
       <c r="D26" s="65">
-        <v>7034766323</v>
+        <v>8281684355</v>
       </c>
       <c t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">30-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F26">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G26">
@@ -1536,7 +1536,7 @@
       </c>
       <c t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J26">
@@ -1546,7 +1546,7 @@
       </c>
       <c t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">HE LIKES BLUE SELF PRINT,WILL CHECK WITH FAMILY AND CONFIRM BACK</t>
+          <t xml:space="preserve">customer needs to fix the bride dress ,after fixation he will contact soon as  possible</t>
         </is>
       </c>
     </row>
@@ -1556,20 +1556,20 @@
       </c>
       <c t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C27">
         <is>
-          <t xml:space="preserve">arjun</t>
+          <t xml:space="preserve">Jithin</t>
         </is>
       </c>
       <c r="D27" s="65">
-        <v>9400208644</v>
+        <v>7592971971</v>
       </c>
       <c t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">09-02-2026</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F27">
@@ -1599,7 +1599,7 @@
       </c>
       <c t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">customer is ok with offwhite indo he will discuss with family and revisit again</t>
+          <t xml:space="preserve">Customer just visit he dicuss with family and visit again</t>
         </is>
       </c>
     </row>
@@ -1609,25 +1609,25 @@
       </c>
       <c t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C28">
         <is>
-          <t xml:space="preserve">levin</t>
+          <t xml:space="preserve">gopu</t>
         </is>
       </c>
       <c r="D28" s="65">
-        <v>9446345585</v>
+        <v>9745804315</v>
       </c>
       <c t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">12-01-2026</t>
+          <t xml:space="preserve">18-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F28">
         <is>
-          <t xml:space="preserve">NANDHU RAJESH</t>
+          <t xml:space="preserve">Arjun Reji</t>
         </is>
       </c>
       <c t="inlineStr" r="G28">
@@ -1642,7 +1642,7 @@
       </c>
       <c t="inlineStr" r="I28">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J28">
@@ -1652,7 +1652,7 @@
       </c>
       <c t="inlineStr" r="K28">
         <is>
-          <t xml:space="preserve">They were confirmed premiun IW meroon and black embo,will discuss with family and update by tomorrow</t>
+          <t xml:space="preserve">The woman's dress has not been confirmed. So they will come together later.</t>
         </is>
       </c>
     </row>
@@ -1662,25 +1662,25 @@
       </c>
       <c t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C29">
         <is>
-          <t xml:space="preserve">Anson</t>
+          <t xml:space="preserve">philemon</t>
         </is>
       </c>
       <c r="D29" s="65">
-        <v>8157006475</v>
+        <v>8113834686</v>
       </c>
       <c t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">05-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F29">
         <is>
-          <t xml:space="preserve">Arjun Reji</t>
+          <t xml:space="preserve">Noel Jacob</t>
         </is>
       </c>
       <c t="inlineStr" r="G29">
@@ -1690,12 +1690,12 @@
       </c>
       <c t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J29">
@@ -1705,7 +1705,7 @@
       </c>
       <c t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">The product ok with customer they will discuss the family and visit again</t>
+          <t xml:space="preserve">They required specific white bengala which is not avilable in our store,it is available in Kochi and perinthalmanna .Will discuss with the  store team to check availability and inform to the customer asap for booking</t>
         </is>
       </c>
     </row>
@@ -1715,25 +1715,25 @@
       </c>
       <c t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">joyal</t>
+          <t xml:space="preserve">Shaun</t>
         </is>
       </c>
       <c r="D30" s="65">
-        <v>9778238348</v>
+        <v>8129659152</v>
       </c>
       <c t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">08-01-2026</t>
+          <t xml:space="preserve">07-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">NANDHU RAJESH</t>
+          <t xml:space="preserve">Jithinsha R</t>
         </is>
       </c>
       <c t="inlineStr" r="G30">
@@ -1743,12 +1743,12 @@
       </c>
       <c t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J30">
@@ -1758,7 +1758,7 @@
       </c>
       <c t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">black bulk product 4 qty</t>
+          <t xml:space="preserve">Customer Needs Sepcific color which is peacock green suites of bulk  8 qty ,we dont have that colour here</t>
         </is>
       </c>
     </row>
@@ -1768,25 +1768,25 @@
       </c>
       <c t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C31">
         <is>
-          <t xml:space="preserve">shafi</t>
+          <t xml:space="preserve">ebin</t>
         </is>
       </c>
       <c r="D31" s="65">
-        <v>9995786001</v>
+        <v>9567225691</v>
       </c>
       <c t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">11-01-2026</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F31">
         <is>
-          <t xml:space="preserve">Arjun Reji</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G31">
@@ -1811,7 +1811,7 @@
       </c>
       <c t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">Price Asking…. And visit again</t>
+          <t xml:space="preserve">size issue</t>
         </is>
       </c>
     </row>
@@ -1821,25 +1821,25 @@
       </c>
       <c t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C32">
         <is>
-          <t xml:space="preserve">Sachin</t>
+          <t xml:space="preserve">sujith</t>
         </is>
       </c>
       <c r="D32" s="65">
-        <v>8089413584</v>
+        <v>8113934226</v>
       </c>
       <c t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">17-01-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F32">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G32">
@@ -1854,7 +1854,7 @@
       </c>
       <c t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J32">
@@ -1864,7 +1864,7 @@
       </c>
       <c t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">visit again</t>
+          <t xml:space="preserve">customer need to fix there colour with bride. he will visit the store tomorrow</t>
         </is>
       </c>
     </row>
@@ -1874,25 +1874,25 @@
       </c>
       <c t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C33">
         <is>
-          <t xml:space="preserve">starlet</t>
+          <t xml:space="preserve">basith</t>
         </is>
       </c>
       <c r="D33" s="65">
-        <v>9381340768</v>
+        <v>7902662404</v>
       </c>
       <c t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">07-02-2026</t>
+          <t xml:space="preserve">11-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F33">
         <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
+          <t xml:space="preserve">Noel Jacob</t>
         </is>
       </c>
       <c t="inlineStr" r="G33">
@@ -1902,12 +1902,12 @@
       </c>
       <c t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J33">
@@ -1917,7 +1917,7 @@
       </c>
       <c t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">Customer is ok with wine suit he will discuss family and revisit again</t>
+          <t xml:space="preserve">they needs 34 green texture ,but its also booked ,will checked with other stores and inform the customer for availability</t>
         </is>
       </c>
     </row>
@@ -1927,25 +1927,25 @@
       </c>
       <c t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C34">
         <is>
-          <t xml:space="preserve">JITHU</t>
+          <t xml:space="preserve">bibin</t>
         </is>
       </c>
       <c r="D34" s="65">
-        <v>8848221123</v>
+        <v>7994681733</v>
       </c>
       <c t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">29-01-2026</t>
+          <t xml:space="preserve">15-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F34">
         <is>
-          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+          <t xml:space="preserve">Noel Jacob</t>
         </is>
       </c>
       <c t="inlineStr" r="G34">
@@ -1960,7 +1960,7 @@
       </c>
       <c t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J34">
@@ -1970,7 +1970,7 @@
       </c>
       <c t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">THEY ARE OK WITH BLUE PREMIUM AND WHITE IW ,CONFIRM WITH BRIDE AND WILL REVISIT</t>
+          <t xml:space="preserve">want kurta work model not in our store currently</t>
         </is>
       </c>
     </row>
@@ -1980,25 +1980,25 @@
       </c>
       <c t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C35">
         <is>
-          <t xml:space="preserve">Robin</t>
+          <t xml:space="preserve">james</t>
         </is>
       </c>
       <c r="D35" s="65">
-        <v>6238812240</v>
+        <v>9778431334</v>
       </c>
       <c t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">14-02-2026</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F35">
         <is>
-          <t xml:space="preserve">Arjun Reji</t>
+          <t xml:space="preserve">Noel Jacob</t>
         </is>
       </c>
       <c t="inlineStr" r="G35">
@@ -2013,7 +2013,7 @@
       </c>
       <c t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J35">
@@ -2023,7 +2023,7 @@
       </c>
       <c t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">Customer ok with the product.they will discuss and inform tomorrow</t>
+          <t xml:space="preserve">date issue want charcoal gery colour</t>
         </is>
       </c>
     </row>
@@ -2033,25 +2033,25 @@
       </c>
       <c t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C36">
         <is>
-          <t xml:space="preserve">shiros</t>
+          <t xml:space="preserve">bibin</t>
         </is>
       </c>
       <c r="D36" s="65">
-        <v>9567090630</v>
+        <v>9048044474</v>
       </c>
       <c t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">25-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F36">
         <is>
-          <t xml:space="preserve">NANDHU RAJESH</t>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
         </is>
       </c>
       <c t="inlineStr" r="G36">
@@ -2061,12 +2061,12 @@
       </c>
       <c t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I36">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J36">
@@ -2076,113 +2076,7 @@
       </c>
       <c t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">They required 44 size IW ,we are showed available 2 models,the customer is in USA,they will confirm once the colour is selected</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="65">
-        <v>35</v>
-      </c>
-      <c t="inlineStr" r="B37">
-        <is>
-          <t xml:space="preserve">17-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C37">
-        <is>
-          <t xml:space="preserve">Manuel</t>
-        </is>
-      </c>
-      <c r="D37" s="65">
-        <v>7411047059</v>
-      </c>
-      <c t="inlineStr" r="E37">
-        <is>
-          <t xml:space="preserve">06-01-2026</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F37">
-        <is>
-          <t xml:space="preserve">Aswin Raj M. R</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G37">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H37">
-        <is>
-          <t xml:space="preserve">ENQUIRY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I37">
-        <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J37">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K37">
-        <is>
-          <t xml:space="preserve">customer ok with blue suit he will discuss with family and visit again store</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="65">
-        <v>36</v>
-      </c>
-      <c t="inlineStr" r="B38">
-        <is>
-          <t xml:space="preserve">17-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C38">
-        <is>
-          <t xml:space="preserve">abhel</t>
-        </is>
-      </c>
-      <c r="D38" s="65">
-        <v>9711815453</v>
-      </c>
-      <c t="inlineStr" r="E38">
-        <is>
-          <t xml:space="preserve">12-01-2026</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F38">
-        <is>
-          <t xml:space="preserve">Noel Jacob</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G38">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H38">
-        <is>
-          <t xml:space="preserve">ENQUIRY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I38">
-        <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J38">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K38">
-        <is>
-          <t xml:space="preserve">just enquiry</t>
+          <t xml:space="preserve">required model is not available</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_kottayam.xlsx
+++ b/data/lossofsale_sg_kottayam.xlsx
@@ -2080,6 +2080,642 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="65">
+        <v>35</v>
+      </c>
+      <c t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">ivin</t>
+        </is>
+      </c>
+      <c r="D37" s="65">
+        <v>9020244484</v>
+      </c>
+      <c t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">Noel Jacob</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G37">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J37">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K37">
+        <is>
+          <t xml:space="preserve">They are looking for a suit,we are showed multiple items ,he will confirm with family and will revisit again</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="65">
+        <v>36</v>
+      </c>
+      <c t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">saji</t>
+        </is>
+      </c>
+      <c r="D38" s="65">
+        <v>9544577340</v>
+      </c>
+      <c t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F38">
+        <is>
+          <t xml:space="preserve">Noel Jacob</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G38">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I38">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J38">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K38">
+        <is>
+          <t xml:space="preserve">they need green colour non premium 3peace suit  different sizes. and they want opinion from cousins revist again</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="65">
+        <v>37</v>
+      </c>
+      <c t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C39">
+        <is>
+          <t xml:space="preserve">febin</t>
+        </is>
+      </c>
+      <c r="D39" s="65">
+        <v>9207420831</v>
+      </c>
+      <c t="inlineStr" r="E39">
+        <is>
+          <t xml:space="preserve">12-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">ABHIJITH KUMAR P A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G39">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H39">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I39">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K39">
+        <is>
+          <t xml:space="preserve">they have checked the products which is suits for him,will revisit with bride in upcoming days</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="65">
+        <v>38</v>
+      </c>
+      <c t="inlineStr" r="B40">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C40">
+        <is>
+          <t xml:space="preserve">jims</t>
+        </is>
+      </c>
+      <c r="D40" s="65">
+        <v>9731146756</v>
+      </c>
+      <c t="inlineStr" r="E40">
+        <is>
+          <t xml:space="preserve">15-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F40">
+        <is>
+          <t xml:space="preserve">Noel Jacob</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G40">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H40">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I40">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J40">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K40">
+        <is>
+          <t xml:space="preserve">just enquiry revist on 3 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="65">
+        <v>39</v>
+      </c>
+      <c t="inlineStr" r="B41">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C41">
+        <is>
+          <t xml:space="preserve">Hari</t>
+        </is>
+      </c>
+      <c r="D41" s="65">
+        <v>9747511995</v>
+      </c>
+      <c t="inlineStr" r="E41">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F41">
+        <is>
+          <t xml:space="preserve">Jithinsha R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G41">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H41">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I41">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J41">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K41">
+        <is>
+          <t xml:space="preserve">Customer ok with Navy blue and Peacock blue bengala,He needs a suires for wedding also.he will revisit the store by tomorrw for booking for both items</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="65">
+        <v>40</v>
+      </c>
+      <c t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C42">
+        <is>
+          <t xml:space="preserve">Alvin</t>
+        </is>
+      </c>
+      <c r="D42" s="65">
+        <v>9495564724</v>
+      </c>
+      <c t="inlineStr" r="E42">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F42">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G42">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H42">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J42">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K42">
+        <is>
+          <t xml:space="preserve">want black embro but dates are not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="65">
+        <v>41</v>
+      </c>
+      <c t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C43">
+        <is>
+          <t xml:space="preserve">sachin</t>
+        </is>
+      </c>
+      <c r="D43" s="65">
+        <v>9495574128</v>
+      </c>
+      <c t="inlineStr" r="E43">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F43">
+        <is>
+          <t xml:space="preserve">Arjun Reji</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G43">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H43">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I43">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J43">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K43">
+        <is>
+          <t xml:space="preserve">He was okey with the product but family was disapprovel</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="65">
+        <v>42</v>
+      </c>
+      <c t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C44">
+        <is>
+          <t xml:space="preserve">Ashok</t>
+        </is>
+      </c>
+      <c r="D44" s="65">
+        <v>8714298728</v>
+      </c>
+      <c t="inlineStr" r="E44">
+        <is>
+          <t xml:space="preserve">07-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F44">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G44">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H44">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I44">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K44">
+        <is>
+          <t xml:space="preserve">Customer is ok with biege suit he discuss with bride and family and visit again</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="65">
+        <v>43</v>
+      </c>
+      <c t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C45">
+        <is>
+          <t xml:space="preserve">rasal</t>
+        </is>
+      </c>
+      <c r="D45" s="65">
+        <v>9072226848</v>
+      </c>
+      <c t="inlineStr" r="E45">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F45">
+        <is>
+          <t xml:space="preserve">Arjun Reji</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G45">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H45">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I45">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J45">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K45">
+        <is>
+          <t xml:space="preserve">Enquiry and price details</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="65">
+        <v>44</v>
+      </c>
+      <c t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C46">
+        <is>
+          <t xml:space="preserve">Deepak</t>
+        </is>
+      </c>
+      <c r="D46" s="65">
+        <v>8848355981</v>
+      </c>
+      <c t="inlineStr" r="E46">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F46">
+        <is>
+          <t xml:space="preserve">Aswin Raj M. R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G46">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H46">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I46">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J46">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K46">
+        <is>
+          <t xml:space="preserve">just visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="65">
+        <v>45</v>
+      </c>
+      <c t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C47">
+        <is>
+          <t xml:space="preserve">johnson</t>
+        </is>
+      </c>
+      <c r="D47" s="65">
+        <v>8891512403</v>
+      </c>
+      <c t="inlineStr" r="E47">
+        <is>
+          <t xml:space="preserve">06-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F47">
+        <is>
+          <t xml:space="preserve">Noel Jacob</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G47">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H47">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I47">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J47">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K47">
+        <is>
+          <t xml:space="preserve">want black colour short work model  and that product already booked for another custmor</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="65">
+        <v>46</v>
+      </c>
+      <c t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C48">
+        <is>
+          <t xml:space="preserve">philip</t>
+        </is>
+      </c>
+      <c r="D48" s="65">
+        <v>7736254684</v>
+      </c>
+      <c t="inlineStr" r="E48">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F48">
+        <is>
+          <t xml:space="preserve">Arjun Reji</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G48">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H48">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I48">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J48">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K48">
+        <is>
+          <t xml:space="preserve">He was ok with the product.but the product not for available at the date</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
